--- a/atamaListe.xlsx
+++ b/atamaListe.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>sicil</t>
   </si>
@@ -23,67 +23,25 @@
     <t>sirname</t>
   </si>
   <si>
-    <t>atamaTarihi</t>
+    <t>unvan</t>
   </si>
   <si>
     <t>hizmetSinifi</t>
   </si>
   <si>
-    <t>Birim</t>
+    <t>2</t>
   </si>
   <si>
-    <t>unvan</t>
+    <t>Ruhi</t>
   </si>
   <si>
-    <t>gorev</t>
+    <t>ÇELİK</t>
   </si>
   <si>
-    <t>gorevsekli</t>
+    <t>Bigisayar İşletmeni</t>
   </si>
   <si>
-    <t>atamasekli</t>
-  </si>
-  <si>
-    <t>memuriyetbaslama</t>
-  </si>
-  <si>
-    <t>lojmanYararlanmaSure</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>ljk</t>
-  </si>
-  <si>
-    <t>jhj</t>
-  </si>
-  <si>
-    <t>06.12.2017</t>
-  </si>
-  <si>
-    <t>Yardımcı Hizmetler Sinifi</t>
-  </si>
-  <si>
-    <t>Karadağ Şefliği</t>
-  </si>
-  <si>
-    <t>Hizmetli</t>
-  </si>
-  <si>
-    <t>İşletme Saymanı</t>
-  </si>
-  <si>
-    <t>Geçici Dış Görev</t>
-  </si>
-  <si>
-    <t>Geçici Görevli</t>
-  </si>
-  <si>
-    <t>01.12.2001</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Genel İdari Hizmetler Sinifi</t>
   </si>
 </sst>
 </file>
@@ -128,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -145,69 +103,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4"/>
